--- a/Code/Results/Cases/Case_5_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_149/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.64951671119174</v>
+        <v>21.52698182277397</v>
       </c>
       <c r="C2">
-        <v>5.118049361475596</v>
+        <v>3.023968074486815</v>
       </c>
       <c r="D2">
-        <v>5.854490649929821</v>
+        <v>3.904400907923373</v>
       </c>
       <c r="E2">
-        <v>5.599481303407184</v>
+        <v>10.77759118223912</v>
       </c>
       <c r="F2">
-        <v>69.68932995434409</v>
+        <v>69.53616316249607</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.598116989004705</v>
+        <v>11.27624633093274</v>
       </c>
       <c r="K2">
-        <v>11.37586466850033</v>
+        <v>17.684123285992</v>
       </c>
       <c r="L2">
-        <v>5.55696037558041</v>
+        <v>11.10012192625151</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.10042070674901</v>
+        <v>21.54617254014067</v>
       </c>
       <c r="C3">
-        <v>4.788216924672374</v>
+        <v>2.974724868052011</v>
       </c>
       <c r="D3">
-        <v>5.593467771376112</v>
+        <v>3.78020419545809</v>
       </c>
       <c r="E3">
-        <v>5.652045451390881</v>
+        <v>10.81090140214611</v>
       </c>
       <c r="F3">
-        <v>66.86396847469875</v>
+        <v>68.71104351508627</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.535630378148123</v>
+        <v>11.26839204990302</v>
       </c>
       <c r="K3">
-        <v>11.00172919851803</v>
+        <v>17.71754574697328</v>
       </c>
       <c r="L3">
-        <v>5.597941156622031</v>
+        <v>11.14497077895334</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77022720511227</v>
+        <v>21.56471972667945</v>
       </c>
       <c r="C4">
-        <v>4.577731787766503</v>
+        <v>2.946699213255007</v>
       </c>
       <c r="D4">
-        <v>5.428452671766991</v>
+        <v>3.700840707651334</v>
       </c>
       <c r="E4">
-        <v>5.686739835423457</v>
+        <v>10.83268889960536</v>
       </c>
       <c r="F4">
-        <v>65.09847787822208</v>
+        <v>68.20216886422497</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.498497060604918</v>
+        <v>11.26399002304225</v>
       </c>
       <c r="K4">
-        <v>10.78000130592388</v>
+        <v>17.74346305139033</v>
       </c>
       <c r="L4">
-        <v>5.627553018566622</v>
+        <v>11.17448627261466</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63757413895091</v>
+        <v>21.57397614888351</v>
       </c>
       <c r="C5">
-        <v>4.48991104644684</v>
+        <v>2.935857803289229</v>
       </c>
       <c r="D5">
-        <v>5.360019985106987</v>
+        <v>3.667736998744724</v>
       </c>
       <c r="E5">
-        <v>5.70148124336228</v>
+        <v>10.84190398344518</v>
       </c>
       <c r="F5">
-        <v>64.37178601624649</v>
+        <v>67.9943717979892</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.483662632153237</v>
+        <v>11.26230208162493</v>
       </c>
       <c r="K5">
-        <v>10.69173319355799</v>
+        <v>17.75537804697906</v>
       </c>
       <c r="L5">
-        <v>5.640699431830186</v>
+        <v>11.18701203763181</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.61566695564154</v>
+        <v>21.57561564859268</v>
       </c>
       <c r="C6">
-        <v>4.475203781921717</v>
+        <v>2.934093227693755</v>
       </c>
       <c r="D6">
-        <v>5.348585373755585</v>
+        <v>3.662194687350417</v>
       </c>
       <c r="E6">
-        <v>5.703965328227492</v>
+        <v>10.84345448954108</v>
       </c>
       <c r="F6">
-        <v>64.2506981954964</v>
+        <v>67.95984553633522</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.481217015568456</v>
+        <v>11.26202820225961</v>
       </c>
       <c r="K6">
-        <v>10.67720477606579</v>
+        <v>17.7574381618063</v>
       </c>
       <c r="L6">
-        <v>5.64294646805779</v>
+        <v>11.18912202337141</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.76843027731524</v>
+        <v>21.56483768992824</v>
       </c>
       <c r="C7">
-        <v>4.576555743202029</v>
+        <v>2.946550627245458</v>
       </c>
       <c r="D7">
-        <v>5.427534560341271</v>
+        <v>3.700397320413239</v>
       </c>
       <c r="E7">
-        <v>5.686936207594781</v>
+        <v>10.83281181386298</v>
       </c>
       <c r="F7">
-        <v>65.08870606008168</v>
+        <v>68.19936798461745</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.498295808916314</v>
+        <v>11.26396682978021</v>
       </c>
       <c r="K7">
-        <v>10.77880233230961</v>
+        <v>17.74361826586593</v>
       </c>
       <c r="L7">
-        <v>5.627725995764704</v>
+        <v>11.17465318251982</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.45883305763927</v>
+        <v>21.53219366327421</v>
       </c>
       <c r="C8">
-        <v>5.005948166088457</v>
+        <v>3.006545158122091</v>
       </c>
       <c r="D8">
-        <v>5.765475937219972</v>
+        <v>3.862233136271215</v>
       </c>
       <c r="E8">
-        <v>5.617099819045315</v>
+        <v>10.78879999073006</v>
       </c>
       <c r="F8">
-        <v>68.72177414898242</v>
+        <v>69.25221172474738</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.576307724490385</v>
+        <v>11.2734509998202</v>
       </c>
       <c r="K8">
-        <v>11.24524900765194</v>
+        <v>17.69452561918763</v>
       </c>
       <c r="L8">
-        <v>5.570142425457834</v>
+        <v>11.11517557995327</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.8621176459326</v>
+        <v>21.52191954814831</v>
       </c>
       <c r="C9">
-        <v>5.787156212187901</v>
+        <v>3.203828611161989</v>
       </c>
       <c r="D9">
-        <v>6.390713485351617</v>
+        <v>4.154229233018819</v>
       </c>
       <c r="E9">
-        <v>5.499622061415796</v>
+        <v>10.71304731982896</v>
       </c>
       <c r="F9">
-        <v>75.58726786881871</v>
+        <v>71.29292669333675</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.739700435086057</v>
+        <v>11.29537928146185</v>
       </c>
       <c r="K9">
-        <v>12.22037729842656</v>
+        <v>17.64119333070734</v>
       </c>
       <c r="L9">
-        <v>5.494451627858377</v>
+        <v>11.01421147073383</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91752457196669</v>
+        <v>21.54716606557569</v>
       </c>
       <c r="C10">
-        <v>6.328006777991431</v>
+        <v>3.445411907779055</v>
       </c>
       <c r="D10">
-        <v>6.828166595193194</v>
+        <v>4.352469972263178</v>
       </c>
       <c r="E10">
-        <v>5.425613722852811</v>
+        <v>10.66377474212581</v>
       </c>
       <c r="F10">
-        <v>80.4618471642186</v>
+        <v>72.76961114860076</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.867066774530647</v>
+        <v>11.31351182643871</v>
       </c>
       <c r="K10">
-        <v>12.97072980562266</v>
+        <v>17.62832200886974</v>
       </c>
       <c r="L10">
-        <v>5.464450347110053</v>
+        <v>10.9495541501448</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.40243482330781</v>
+        <v>21.56575678325895</v>
       </c>
       <c r="C11">
-        <v>6.567944601708407</v>
+        <v>3.549603523146473</v>
       </c>
       <c r="D11">
-        <v>7.022808584834101</v>
+        <v>4.43897720641746</v>
       </c>
       <c r="E11">
-        <v>5.394731323846353</v>
+        <v>10.64273455817701</v>
       </c>
       <c r="F11">
-        <v>82.64271930576599</v>
+        <v>73.43480147946708</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.926850210799381</v>
+        <v>11.32219778337064</v>
       </c>
       <c r="K11">
-        <v>13.31925163569923</v>
+        <v>17.62819591828723</v>
       </c>
       <c r="L11">
-        <v>5.457081083017782</v>
+        <v>10.92220065632664</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58675625900408</v>
+        <v>21.57381518127467</v>
       </c>
       <c r="C12">
-        <v>6.658031839485484</v>
+        <v>3.58823716231884</v>
       </c>
       <c r="D12">
-        <v>7.09593285672668</v>
+        <v>4.471197135727372</v>
       </c>
       <c r="E12">
-        <v>5.38344866738669</v>
+        <v>10.63496396522376</v>
       </c>
       <c r="F12">
-        <v>83.46347307081147</v>
+        <v>73.68561018233595</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.949777920922147</v>
+        <v>11.32554956237772</v>
       </c>
       <c r="K12">
-        <v>13.49609611659582</v>
+        <v>17.62897218307058</v>
       </c>
       <c r="L12">
-        <v>5.455260107312307</v>
+        <v>10.91213828440944</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54702778663977</v>
+        <v>21.5720344284445</v>
       </c>
       <c r="C13">
-        <v>6.638662441932682</v>
+        <v>3.579953257184008</v>
       </c>
       <c r="D13">
-        <v>7.080209318334039</v>
+        <v>4.464282095176129</v>
       </c>
       <c r="E13">
-        <v>5.38586007352691</v>
+        <v>10.63662875728743</v>
       </c>
       <c r="F13">
-        <v>83.2869315118806</v>
+        <v>73.63164448069602</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.94482675675139</v>
+        <v>11.32482491782296</v>
       </c>
       <c r="K13">
-        <v>13.45372092699904</v>
+        <v>17.62876835703995</v>
       </c>
       <c r="L13">
-        <v>5.455608030284914</v>
+        <v>10.91429224562151</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.41758490590169</v>
+        <v>21.56639936350165</v>
       </c>
       <c r="C14">
-        <v>6.575370949997722</v>
+        <v>3.552798401456842</v>
       </c>
       <c r="D14">
-        <v>7.028835943046954</v>
+        <v>4.441638805175279</v>
       </c>
       <c r="E14">
-        <v>5.393794767878433</v>
+        <v>10.64209132546415</v>
       </c>
       <c r="F14">
-        <v>82.71034387060999</v>
+        <v>73.4554581919451</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.928730545866404</v>
+        <v>11.32247228352146</v>
       </c>
       <c r="K14">
-        <v>13.3301746060365</v>
+        <v>17.62824326911403</v>
       </c>
       <c r="L14">
-        <v>5.456911432211645</v>
+        <v>10.92136689251632</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.33838904767286</v>
+        <v>21.56308024331064</v>
       </c>
       <c r="C15">
-        <v>6.536505917371654</v>
+        <v>3.536058276795824</v>
       </c>
       <c r="D15">
-        <v>6.997293917108865</v>
+        <v>4.427698729416954</v>
       </c>
       <c r="E15">
-        <v>5.398708997234918</v>
+        <v>10.64546292259092</v>
       </c>
       <c r="F15">
-        <v>82.35651109772381</v>
+        <v>73.34739364873602</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.918909557934918</v>
+        <v>11.32103936966233</v>
       </c>
       <c r="K15">
-        <v>13.27309781525808</v>
+        <v>17.62802894155919</v>
       </c>
       <c r="L15">
-        <v>5.457838167219564</v>
+        <v>10.92573883033872</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.88593066419454</v>
+        <v>21.54609385001104</v>
       </c>
       <c r="C16">
-        <v>6.312212195979478</v>
+        <v>3.438487819279214</v>
       </c>
       <c r="D16">
-        <v>6.8153621282793</v>
+        <v>4.346741694147598</v>
       </c>
       <c r="E16">
-        <v>5.427688932625471</v>
+        <v>10.6651773562474</v>
       </c>
       <c r="F16">
-        <v>80.3185967728367</v>
+        <v>72.72599524839245</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.86319885455864</v>
+        <v>11.31295295480439</v>
       </c>
       <c r="K16">
-        <v>12.94809831310771</v>
+        <v>17.62844556435524</v>
       </c>
       <c r="L16">
-        <v>5.46506384702819</v>
+        <v>10.95138317687612</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.60958219109455</v>
+        <v>21.53749124913212</v>
       </c>
       <c r="C17">
-        <v>6.173123429739542</v>
+        <v>3.377169094787807</v>
       </c>
       <c r="D17">
-        <v>6.702664836758827</v>
+        <v>4.296128578311351</v>
       </c>
       <c r="E17">
-        <v>5.446187997505571</v>
+        <v>10.67762295251361</v>
       </c>
       <c r="F17">
-        <v>79.05910455578355</v>
+        <v>72.34300574043714</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.829510356924647</v>
+        <v>11.30810401767062</v>
       </c>
       <c r="K17">
-        <v>12.75056330321344</v>
+        <v>17.63016885814894</v>
       </c>
       <c r="L17">
-        <v>5.47115015812671</v>
+        <v>10.96764237662625</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.45108272420344</v>
+        <v>21.53321237915243</v>
       </c>
       <c r="C18">
-        <v>6.092542174663293</v>
+        <v>3.34136311495288</v>
       </c>
       <c r="D18">
-        <v>6.637430890443224</v>
+        <v>4.266672007709166</v>
       </c>
       <c r="E18">
-        <v>5.457089476281223</v>
+        <v>10.68491071602453</v>
       </c>
       <c r="F18">
-        <v>78.331214746572</v>
+        <v>72.12211101564787</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.81030556491929</v>
+        <v>11.30535622398132</v>
       </c>
       <c r="K18">
-        <v>12.63761969518123</v>
+        <v>17.63169933834636</v>
       </c>
       <c r="L18">
-        <v>5.475237444970808</v>
+        <v>10.9771881025609</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39749514796613</v>
+        <v>21.5318786315275</v>
       </c>
       <c r="C19">
-        <v>6.06515599203119</v>
+        <v>3.329147628686835</v>
       </c>
       <c r="D19">
-        <v>6.615271616163438</v>
+        <v>4.256639557868133</v>
       </c>
       <c r="E19">
-        <v>5.460825085086045</v>
+        <v>10.68740047215121</v>
       </c>
       <c r="F19">
-        <v>78.08416608943385</v>
+        <v>72.04721955997037</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.803832009299209</v>
+        <v>11.30443295081852</v>
       </c>
       <c r="K19">
-        <v>12.59949457441307</v>
+        <v>17.63231013919669</v>
       </c>
       <c r="L19">
-        <v>5.476720147956646</v>
+        <v>10.98045342843016</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.63895359763834</v>
+        <v>21.53833778010338</v>
       </c>
       <c r="C20">
-        <v>6.187989093485685</v>
+        <v>3.383752172526731</v>
       </c>
       <c r="D20">
-        <v>6.714704160054048</v>
+        <v>4.301552240909615</v>
       </c>
       <c r="E20">
-        <v>5.444191618250339</v>
+        <v>10.67628471199155</v>
       </c>
       <c r="F20">
-        <v>79.19353730395473</v>
+        <v>72.38383971842883</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.833078597457085</v>
+        <v>11.30861593470956</v>
       </c>
       <c r="K20">
-        <v>12.77152153821948</v>
+        <v>17.62992959314755</v>
       </c>
       <c r="L20">
-        <v>5.470441085540019</v>
+        <v>10.96589149544308</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.45558624449384</v>
+        <v>21.56802690921882</v>
       </c>
       <c r="C21">
-        <v>6.593981235707074</v>
+        <v>3.560796738178586</v>
       </c>
       <c r="D21">
-        <v>7.043940948690221</v>
+        <v>4.448304377423229</v>
       </c>
       <c r="E21">
-        <v>5.391452879585129</v>
+        <v>10.64048149964096</v>
       </c>
       <c r="F21">
-        <v>82.87983789128801</v>
+        <v>73.50723891427002</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.93345034184038</v>
+        <v>11.32316161290166</v>
       </c>
       <c r="K21">
-        <v>13.35758173283479</v>
+        <v>17.62837513878256</v>
       </c>
       <c r="L21">
-        <v>5.456501712112052</v>
+        <v>10.91928087188507</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.99339809326704</v>
+        <v>21.59336469153131</v>
       </c>
       <c r="C22">
-        <v>6.854880826311277</v>
+        <v>3.671717658727021</v>
       </c>
       <c r="D22">
-        <v>7.255749980399692</v>
+        <v>4.5410728859113</v>
       </c>
       <c r="E22">
-        <v>5.359392058644909</v>
+        <v>10.61822919393141</v>
       </c>
       <c r="F22">
-        <v>85.25952877654899</v>
+        <v>74.2350613434123</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.000747401428173</v>
+        <v>11.33303275587648</v>
       </c>
       <c r="K22">
-        <v>13.92598221671515</v>
+        <v>17.63216177656185</v>
       </c>
       <c r="L22">
-        <v>5.453078969287991</v>
+        <v>10.89054215134579</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.70596915898123</v>
+        <v>21.57929985661788</v>
       </c>
       <c r="C23">
-        <v>6.7160012884062</v>
+        <v>3.612955255812246</v>
       </c>
       <c r="D23">
-        <v>7.142994008626781</v>
+        <v>4.49185115990368</v>
       </c>
       <c r="E23">
-        <v>5.37627907774722</v>
+        <v>10.63000094307968</v>
       </c>
       <c r="F23">
-        <v>83.99205194186328</v>
+        <v>73.8472386378955</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.964665476677943</v>
+        <v>11.32773107501592</v>
       </c>
       <c r="K23">
-        <v>13.62283798345364</v>
+        <v>17.62970146513658</v>
       </c>
       <c r="L23">
-        <v>5.454361543087659</v>
+        <v>10.90572290868888</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.62567361048483</v>
+        <v>21.53795298593662</v>
       </c>
       <c r="C24">
-        <v>6.181270257284554</v>
+        <v>3.380777685609757</v>
       </c>
       <c r="D24">
-        <v>6.709262564322804</v>
+        <v>4.299101318705677</v>
       </c>
       <c r="E24">
-        <v>5.445093353253334</v>
+        <v>10.67688931736617</v>
       </c>
       <c r="F24">
-        <v>79.13277207736445</v>
+        <v>72.36538087437962</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.83146488941896</v>
+        <v>11.30838437264594</v>
       </c>
       <c r="K24">
-        <v>12.76204438389589</v>
+        <v>17.63003608363799</v>
       </c>
       <c r="L24">
-        <v>5.470759830160591</v>
+        <v>10.96668245174564</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.47790410543281</v>
+        <v>21.5189378834121</v>
       </c>
       <c r="C25">
-        <v>5.581957430930766</v>
+        <v>3.109816227801651</v>
       </c>
       <c r="D25">
-        <v>6.225517823556003</v>
+        <v>4.078043950034949</v>
       </c>
       <c r="E25">
-        <v>5.529277267856679</v>
+        <v>10.7324158429083</v>
       </c>
       <c r="F25">
-        <v>73.75934451306979</v>
+        <v>70.74425514754192</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.694289512719365</v>
+        <v>11.28909136799111</v>
       </c>
       <c r="K25">
-        <v>11.95047413025784</v>
+        <v>17.65100780804013</v>
       </c>
       <c r="L25">
-        <v>5.510656972415676</v>
+        <v>11.03985065355978</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_149/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52698182277397</v>
+        <v>14.64951671119158</v>
       </c>
       <c r="C2">
-        <v>3.023968074486815</v>
+        <v>5.118049361475626</v>
       </c>
       <c r="D2">
-        <v>3.904400907923373</v>
+        <v>5.854490649929852</v>
       </c>
       <c r="E2">
-        <v>10.77759118223912</v>
+        <v>5.599481303407056</v>
       </c>
       <c r="F2">
-        <v>69.53616316249607</v>
+        <v>69.68932995434417</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.27624633093274</v>
+        <v>7.598116989004692</v>
       </c>
       <c r="K2">
-        <v>17.684123285992</v>
+        <v>11.37586466850025</v>
       </c>
       <c r="L2">
-        <v>11.10012192625151</v>
+        <v>5.556960375580354</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.54617254014067</v>
+        <v>14.10042070674889</v>
       </c>
       <c r="C3">
-        <v>2.974724868052011</v>
+        <v>4.788216924672267</v>
       </c>
       <c r="D3">
-        <v>3.78020419545809</v>
+        <v>5.593467771376219</v>
       </c>
       <c r="E3">
-        <v>10.81090140214611</v>
+        <v>5.652045451390888</v>
       </c>
       <c r="F3">
-        <v>68.71104351508627</v>
+        <v>66.86396847469862</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.26839204990302</v>
+        <v>7.53563037814816</v>
       </c>
       <c r="K3">
-        <v>17.71754574697328</v>
+        <v>11.00172919851798</v>
       </c>
       <c r="L3">
-        <v>11.14497077895334</v>
+        <v>5.597941156621999</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56471972667945</v>
+        <v>13.77022720511217</v>
       </c>
       <c r="C4">
-        <v>2.946699213255007</v>
+        <v>4.577731787766792</v>
       </c>
       <c r="D4">
-        <v>3.700840707651334</v>
+        <v>5.428452671766797</v>
       </c>
       <c r="E4">
-        <v>10.83268889960536</v>
+        <v>5.686739835423462</v>
       </c>
       <c r="F4">
-        <v>68.20216886422497</v>
+        <v>65.09847787822204</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.26399002304225</v>
+        <v>7.498497060604863</v>
       </c>
       <c r="K4">
-        <v>17.74346305139033</v>
+        <v>10.78000130592375</v>
       </c>
       <c r="L4">
-        <v>11.17448627261466</v>
+        <v>5.627553018566531</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.57397614888351</v>
+        <v>13.63757413895091</v>
       </c>
       <c r="C5">
-        <v>2.935857803289229</v>
+        <v>4.48991104644682</v>
       </c>
       <c r="D5">
-        <v>3.667736998744724</v>
+        <v>5.360019985107042</v>
       </c>
       <c r="E5">
-        <v>10.84190398344518</v>
+        <v>5.701481243362159</v>
       </c>
       <c r="F5">
-        <v>67.9943717979892</v>
+        <v>64.37178601624606</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.26230208162493</v>
+        <v>7.483662632153177</v>
       </c>
       <c r="K5">
-        <v>17.75537804697906</v>
+        <v>10.69173319355797</v>
       </c>
       <c r="L5">
-        <v>11.18701203763181</v>
+        <v>5.640699431830047</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.57561564859268</v>
+        <v>13.61566695564146</v>
       </c>
       <c r="C6">
-        <v>2.934093227693755</v>
+        <v>4.475203781921737</v>
       </c>
       <c r="D6">
-        <v>3.662194687350417</v>
+        <v>5.348585373755387</v>
       </c>
       <c r="E6">
-        <v>10.84345448954108</v>
+        <v>5.703965328227617</v>
       </c>
       <c r="F6">
-        <v>67.95984553633522</v>
+        <v>64.25069819549635</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.26202820225961</v>
+        <v>7.48121701556849</v>
       </c>
       <c r="K6">
-        <v>17.7574381618063</v>
+        <v>10.67720477606577</v>
       </c>
       <c r="L6">
-        <v>11.18912202337141</v>
+        <v>5.642946468057921</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56483768992824</v>
+        <v>13.76843027731527</v>
       </c>
       <c r="C7">
-        <v>2.946550627245458</v>
+        <v>4.576555743202359</v>
       </c>
       <c r="D7">
-        <v>3.700397320413239</v>
+        <v>5.427534560341271</v>
       </c>
       <c r="E7">
-        <v>10.83281181386298</v>
+        <v>5.686936207594724</v>
       </c>
       <c r="F7">
-        <v>68.19936798461745</v>
+        <v>65.08870606008173</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.26396682978021</v>
+        <v>7.498295808916318</v>
       </c>
       <c r="K7">
-        <v>17.74361826586593</v>
+        <v>10.77880233230958</v>
       </c>
       <c r="L7">
-        <v>11.17465318251982</v>
+        <v>5.627725995764575</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.53219366327421</v>
+        <v>14.45883305763927</v>
       </c>
       <c r="C8">
-        <v>3.006545158122091</v>
+        <v>5.005948166088252</v>
       </c>
       <c r="D8">
-        <v>3.862233136271215</v>
+        <v>5.765475937219984</v>
       </c>
       <c r="E8">
-        <v>10.78879999073006</v>
+        <v>5.617099819045319</v>
       </c>
       <c r="F8">
-        <v>69.25221172474738</v>
+        <v>68.72177414898204</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.2734509998202</v>
+        <v>7.576307724490403</v>
       </c>
       <c r="K8">
-        <v>17.69452561918763</v>
+        <v>11.24524900765197</v>
       </c>
       <c r="L8">
-        <v>11.11517557995327</v>
+        <v>5.570142425457892</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.52191954814831</v>
+        <v>15.86211764593255</v>
       </c>
       <c r="C9">
-        <v>3.203828611161989</v>
+        <v>5.787156212187911</v>
       </c>
       <c r="D9">
-        <v>4.154229233018819</v>
+        <v>6.390713485351666</v>
       </c>
       <c r="E9">
-        <v>10.71304731982896</v>
+        <v>5.499622061415832</v>
       </c>
       <c r="F9">
-        <v>71.29292669333675</v>
+        <v>75.5872678688184</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.29537928146185</v>
+        <v>7.739700435086052</v>
       </c>
       <c r="K9">
-        <v>17.64119333070734</v>
+        <v>12.22037729842654</v>
       </c>
       <c r="L9">
-        <v>11.01421147073383</v>
+        <v>5.494451627858369</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.54716606557569</v>
+        <v>16.91752457196674</v>
       </c>
       <c r="C10">
-        <v>3.445411907779055</v>
+        <v>6.328006777991099</v>
       </c>
       <c r="D10">
-        <v>4.352469972263178</v>
+        <v>6.82816659519306</v>
       </c>
       <c r="E10">
-        <v>10.66377474212581</v>
+        <v>5.42561372285288</v>
       </c>
       <c r="F10">
-        <v>72.76961114860076</v>
+        <v>80.46184716421821</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.31351182643871</v>
+        <v>7.86706677453066</v>
       </c>
       <c r="K10">
-        <v>17.62832200886974</v>
+        <v>12.9707298056227</v>
       </c>
       <c r="L10">
-        <v>10.9495541501448</v>
+        <v>5.464450347110199</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.56575678325895</v>
+        <v>17.40243482330784</v>
       </c>
       <c r="C11">
-        <v>3.549603523146473</v>
+        <v>6.567944601708703</v>
       </c>
       <c r="D11">
-        <v>4.43897720641746</v>
+        <v>7.022808584834069</v>
       </c>
       <c r="E11">
-        <v>10.64273455817701</v>
+        <v>5.394731323846375</v>
       </c>
       <c r="F11">
-        <v>73.43480147946708</v>
+        <v>82.64271930576609</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.32219778337064</v>
+        <v>7.926850210799394</v>
       </c>
       <c r="K11">
-        <v>17.62819591828723</v>
+        <v>13.31925163569921</v>
       </c>
       <c r="L11">
-        <v>10.92220065632664</v>
+        <v>5.457081083017756</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.57381518127467</v>
+        <v>17.58675625900403</v>
       </c>
       <c r="C12">
-        <v>3.58823716231884</v>
+        <v>6.658031839485568</v>
       </c>
       <c r="D12">
-        <v>4.471197135727372</v>
+        <v>7.095932856726638</v>
       </c>
       <c r="E12">
-        <v>10.63496396522376</v>
+        <v>5.383448667386713</v>
       </c>
       <c r="F12">
-        <v>73.68561018233595</v>
+        <v>83.46347307081157</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.32554956237772</v>
+        <v>7.949777920922102</v>
       </c>
       <c r="K12">
-        <v>17.62897218307058</v>
+        <v>13.49609611659587</v>
       </c>
       <c r="L12">
-        <v>10.91213828440944</v>
+        <v>5.45526010731237</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.5720344284445</v>
+        <v>17.54702778663977</v>
       </c>
       <c r="C13">
-        <v>3.579953257184008</v>
+        <v>6.638662441932682</v>
       </c>
       <c r="D13">
-        <v>4.464282095176129</v>
+        <v>7.080209318333995</v>
       </c>
       <c r="E13">
-        <v>10.63662875728743</v>
+        <v>5.3858600735269</v>
       </c>
       <c r="F13">
-        <v>73.63164448069602</v>
+        <v>83.28693151188038</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.32482491782296</v>
+        <v>7.944826756751357</v>
       </c>
       <c r="K13">
-        <v>17.62876835703995</v>
+        <v>13.4537209269991</v>
       </c>
       <c r="L13">
-        <v>10.91429224562151</v>
+        <v>5.455608030284912</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.56639936350165</v>
+        <v>17.4175849059016</v>
       </c>
       <c r="C14">
-        <v>3.552798401456842</v>
+        <v>6.575370949997889</v>
       </c>
       <c r="D14">
-        <v>4.441638805175279</v>
+        <v>7.028835943047058</v>
       </c>
       <c r="E14">
-        <v>10.64209132546415</v>
+        <v>5.393794767878532</v>
       </c>
       <c r="F14">
-        <v>73.4554581919451</v>
+        <v>82.71034387061033</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.32247228352146</v>
+        <v>7.928730545866523</v>
       </c>
       <c r="K14">
-        <v>17.62824326911403</v>
+        <v>13.33017460603642</v>
       </c>
       <c r="L14">
-        <v>10.92136689251632</v>
+        <v>5.456911432211625</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.56308024331064</v>
+        <v>17.3383890476729</v>
       </c>
       <c r="C15">
-        <v>3.536058276795824</v>
+        <v>6.536505917371422</v>
       </c>
       <c r="D15">
-        <v>4.427698729416954</v>
+        <v>6.997293917108836</v>
       </c>
       <c r="E15">
-        <v>10.64546292259092</v>
+        <v>5.398708997235032</v>
       </c>
       <c r="F15">
-        <v>73.34739364873602</v>
+        <v>82.35651109772333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.32103936966233</v>
+        <v>7.918909557934883</v>
       </c>
       <c r="K15">
-        <v>17.62802894155919</v>
+        <v>13.27309781525811</v>
       </c>
       <c r="L15">
-        <v>10.92573883033872</v>
+        <v>5.45783816721964</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.54609385001104</v>
+        <v>16.88593066419456</v>
       </c>
       <c r="C16">
-        <v>3.438487819279214</v>
+        <v>6.312212195979347</v>
       </c>
       <c r="D16">
-        <v>4.346741694147598</v>
+        <v>6.815362128279193</v>
       </c>
       <c r="E16">
-        <v>10.6651773562474</v>
+        <v>5.427688932625609</v>
       </c>
       <c r="F16">
-        <v>72.72599524839245</v>
+        <v>80.31859677283674</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.31295295480439</v>
+        <v>7.863198854558662</v>
       </c>
       <c r="K16">
-        <v>17.62844556435524</v>
+        <v>12.94809831310772</v>
       </c>
       <c r="L16">
-        <v>10.95138317687612</v>
+        <v>5.465063847028224</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.53749124913212</v>
+        <v>16.60958219109452</v>
       </c>
       <c r="C17">
-        <v>3.377169094787807</v>
+        <v>6.173123429739355</v>
       </c>
       <c r="D17">
-        <v>4.296128578311351</v>
+        <v>6.702664836758947</v>
       </c>
       <c r="E17">
-        <v>10.67762295251361</v>
+        <v>5.446187997505541</v>
       </c>
       <c r="F17">
-        <v>72.34300574043714</v>
+        <v>79.05910455578395</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.30810401767062</v>
+        <v>7.829510356924671</v>
       </c>
       <c r="K17">
-        <v>17.63016885814894</v>
+        <v>12.75056330321343</v>
       </c>
       <c r="L17">
-        <v>10.96764237662625</v>
+        <v>5.471150158126724</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53321237915243</v>
+        <v>16.45108272420351</v>
       </c>
       <c r="C18">
-        <v>3.34136311495288</v>
+        <v>6.092542174663182</v>
       </c>
       <c r="D18">
-        <v>4.266672007709166</v>
+        <v>6.637430890443184</v>
       </c>
       <c r="E18">
-        <v>10.68491071602453</v>
+        <v>5.457089476281176</v>
       </c>
       <c r="F18">
-        <v>72.12211101564787</v>
+        <v>78.33121474657183</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.30535622398132</v>
+        <v>7.810305564919276</v>
       </c>
       <c r="K18">
-        <v>17.63169933834636</v>
+        <v>12.63761969518128</v>
       </c>
       <c r="L18">
-        <v>10.9771881025609</v>
+        <v>5.47523744497082</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.5318786315275</v>
+        <v>16.39749514796612</v>
       </c>
       <c r="C19">
-        <v>3.329147628686835</v>
+        <v>6.065155992031142</v>
       </c>
       <c r="D19">
-        <v>4.256639557868133</v>
+        <v>6.615271616163549</v>
       </c>
       <c r="E19">
-        <v>10.68740047215121</v>
+        <v>5.460825085086061</v>
       </c>
       <c r="F19">
-        <v>72.04721955997037</v>
+        <v>78.08416608943382</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.30443295081852</v>
+        <v>7.803832009299256</v>
       </c>
       <c r="K19">
-        <v>17.63231013919669</v>
+        <v>12.59949457441303</v>
       </c>
       <c r="L19">
-        <v>10.98045342843016</v>
+        <v>5.476720147956563</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53833778010338</v>
+        <v>16.63895359763836</v>
       </c>
       <c r="C20">
-        <v>3.383752172526731</v>
+        <v>6.187989093485792</v>
       </c>
       <c r="D20">
-        <v>4.301552240909615</v>
+        <v>6.714704160053943</v>
       </c>
       <c r="E20">
-        <v>10.67628471199155</v>
+        <v>5.444191618250189</v>
       </c>
       <c r="F20">
-        <v>72.38383971842883</v>
+        <v>79.19353730395453</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.30861593470956</v>
+        <v>7.833078597456977</v>
       </c>
       <c r="K20">
-        <v>17.62992959314755</v>
+        <v>12.77152153821949</v>
       </c>
       <c r="L20">
-        <v>10.96589149544308</v>
+        <v>5.470441085539888</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.56802690921882</v>
+        <v>17.45558624449389</v>
       </c>
       <c r="C21">
-        <v>3.560796738178586</v>
+        <v>6.593981235706805</v>
       </c>
       <c r="D21">
-        <v>4.448304377423229</v>
+        <v>7.043940948690337</v>
       </c>
       <c r="E21">
-        <v>10.64048149964096</v>
+        <v>5.391452879585103</v>
       </c>
       <c r="F21">
-        <v>73.50723891427002</v>
+        <v>82.87983789128758</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.32316161290166</v>
+        <v>7.933450341840406</v>
       </c>
       <c r="K21">
-        <v>17.62837513878256</v>
+        <v>13.35758173283484</v>
       </c>
       <c r="L21">
-        <v>10.91928087188507</v>
+        <v>5.456501712112153</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.59336469153131</v>
+        <v>17.99339809326702</v>
       </c>
       <c r="C22">
-        <v>3.671717658727021</v>
+        <v>6.854880826311378</v>
       </c>
       <c r="D22">
-        <v>4.5410728859113</v>
+        <v>7.255749980399733</v>
       </c>
       <c r="E22">
-        <v>10.61822919393141</v>
+        <v>5.359392058644948</v>
       </c>
       <c r="F22">
-        <v>74.2350613434123</v>
+        <v>85.25952877654925</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.33303275587648</v>
+        <v>8.00074740142823</v>
       </c>
       <c r="K22">
-        <v>17.63216177656185</v>
+        <v>13.92598221671511</v>
       </c>
       <c r="L22">
-        <v>10.89054215134579</v>
+        <v>5.453078969288002</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.57929985661788</v>
+        <v>17.70596915898123</v>
       </c>
       <c r="C23">
-        <v>3.612955255812246</v>
+        <v>6.716001288406042</v>
       </c>
       <c r="D23">
-        <v>4.49185115990368</v>
+        <v>7.142994008626687</v>
       </c>
       <c r="E23">
-        <v>10.63000094307968</v>
+        <v>5.376279077747308</v>
       </c>
       <c r="F23">
-        <v>73.8472386378955</v>
+        <v>83.9920519418632</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.32773107501592</v>
+        <v>7.964665476677975</v>
       </c>
       <c r="K23">
-        <v>17.62970146513658</v>
+        <v>13.62283798345358</v>
       </c>
       <c r="L23">
-        <v>10.90572290868888</v>
+        <v>5.454361543087733</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.53795298593662</v>
+        <v>16.62567361048482</v>
       </c>
       <c r="C24">
-        <v>3.380777685609757</v>
+        <v>6.181270257284784</v>
       </c>
       <c r="D24">
-        <v>4.299101318705677</v>
+        <v>6.709262564322755</v>
       </c>
       <c r="E24">
-        <v>10.67688931736617</v>
+        <v>5.445093353253451</v>
       </c>
       <c r="F24">
-        <v>72.36538087437962</v>
+        <v>79.13277207736452</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.30838437264594</v>
+        <v>7.831464889418924</v>
       </c>
       <c r="K24">
-        <v>17.63003608363799</v>
+        <v>12.7620443838959</v>
       </c>
       <c r="L24">
-        <v>10.96668245174564</v>
+        <v>5.470759830160551</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.5189378834121</v>
+        <v>15.47790410543274</v>
       </c>
       <c r="C25">
-        <v>3.109816227801651</v>
+        <v>5.581957430930874</v>
       </c>
       <c r="D25">
-        <v>4.078043950034949</v>
+        <v>6.225517823556109</v>
       </c>
       <c r="E25">
-        <v>10.7324158429083</v>
+        <v>5.52927726785652</v>
       </c>
       <c r="F25">
-        <v>70.74425514754192</v>
+        <v>73.75934451307008</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.28909136799111</v>
+        <v>7.69428951271933</v>
       </c>
       <c r="K25">
-        <v>17.65100780804013</v>
+        <v>11.95047413025777</v>
       </c>
       <c r="L25">
-        <v>11.03985065355978</v>
+        <v>5.510656972415585</v>
       </c>
       <c r="M25">
         <v>0</v>
